--- a/TeslaNumbers.xlsx
+++ b/TeslaNumbers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>quarter</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>carCostOfRevenue</t>
+  </si>
+  <si>
+    <t>deliveriesModel3Y</t>
+  </si>
+  <si>
+    <t>deliveriesOtherModels</t>
+  </si>
+  <si>
+    <t>productionModel3Y</t>
+  </si>
+  <si>
+    <t>productionOtherModels</t>
   </si>
   <si>
     <t>carNumCars</t>
@@ -275,7 +287,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -283,9 +295,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -297,9 +306,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -307,15 +313,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1371,14 +1368,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="11" width="16.3516" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="13" width="16.3516" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1">
@@ -1409,679 +1406,895 @@
       <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4">
         <f>0.566*10^9</f>
         <v>566000000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <f>4.541*10^9</f>
         <v>4541000000</v>
       </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="D2" s="5">
+        <v>3724000000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2973000000</v>
+      </c>
+      <c r="F2" s="5">
+        <v>50928</v>
+      </c>
+      <c r="G2" s="5">
+        <v>12091</v>
+      </c>
+      <c r="H2" s="5">
+        <v>62975</v>
+      </c>
+      <c r="I2" s="5">
+        <v>14163</v>
+      </c>
+      <c r="J2" s="5">
+        <f>F2+G2</f>
+        <v>63019</v>
+      </c>
+      <c r="K2" s="5">
+        <v>324000000</v>
+      </c>
+      <c r="L2" s="5">
+        <v>316000000</v>
+      </c>
+      <c r="M2" s="5">
+        <v>229000000000</v>
+      </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B3" s="9">
+      <c r="A3" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7">
         <f>0.921*10^9</f>
         <v>921000000</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <f>6.35*10^9</f>
         <v>6350000000</v>
       </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="D3" s="8">
+        <v>5376000000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>4360000000</v>
+      </c>
+      <c r="F3" s="8">
+        <v>77634</v>
+      </c>
+      <c r="G3" s="8">
+        <v>17722</v>
+      </c>
+      <c r="H3" s="8">
+        <v>72531</v>
+      </c>
+      <c r="I3" s="8">
+        <v>14517</v>
+      </c>
+      <c r="J3" s="8">
+        <f>F3+G3</f>
+        <v>95356</v>
+      </c>
+      <c r="K3" s="8">
+        <v>369000000</v>
+      </c>
+      <c r="L3" s="8">
+        <v>326000000</v>
+      </c>
+      <c r="M3" s="8">
+        <v>415000000000</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="A4" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7">
         <f>1.191*10^9</f>
         <v>1191000000</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <f>6.303*10^9</f>
         <v>6303000000</v>
       </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="D4" s="8">
+        <v>5353000000</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4131000000</v>
+      </c>
+      <c r="F4" s="8">
+        <v>79703</v>
+      </c>
+      <c r="G4" s="8">
+        <v>17483</v>
+      </c>
+      <c r="H4" s="8">
+        <v>79837</v>
+      </c>
+      <c r="I4" s="8">
+        <v>16318</v>
+      </c>
+      <c r="J4" s="8">
+        <f>F4+G4</f>
+        <v>97186</v>
+      </c>
+      <c r="K4" s="8">
+        <v>402000000</v>
+      </c>
+      <c r="L4" s="8">
+        <v>314000000</v>
+      </c>
+      <c r="M4" s="8">
+        <v>477000000000</v>
+      </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="A5" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7">
         <f>1.391*10^9</f>
         <v>1391000000</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <f>7.384*10^9</f>
         <v>7384000000</v>
       </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="D5" s="8">
+        <v>6368000000</v>
+      </c>
+      <c r="E5" s="8">
+        <v>4934000000</v>
+      </c>
+      <c r="F5" s="8">
+        <v>92620</v>
+      </c>
+      <c r="G5" s="8">
+        <v>19475</v>
+      </c>
+      <c r="H5" s="8">
+        <v>86958</v>
+      </c>
+      <c r="I5" s="8">
+        <v>17933</v>
+      </c>
+      <c r="J5" s="8">
+        <f>F5+G5</f>
+        <v>112095</v>
+      </c>
+      <c r="K5" s="8">
+        <v>436000000</v>
+      </c>
+      <c r="L5" s="8">
+        <v>385000000</v>
+      </c>
+      <c r="M5" s="8">
+        <v>530000000000</v>
+      </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="A6" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="B6" s="7">
         <f>1.234*10^9</f>
         <v>1234000000</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <f>5.985*10^9</f>
         <v>5985000000</v>
       </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="D6" s="8">
+        <v>5132000000</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3821000000</v>
+      </c>
+      <c r="F6" s="8">
+        <v>76266</v>
+      </c>
+      <c r="G6" s="8">
+        <v>12230</v>
+      </c>
+      <c r="H6" s="8">
+        <v>87282</v>
+      </c>
+      <c r="I6" s="8">
+        <v>15390</v>
+      </c>
+      <c r="J6" s="8">
+        <f>F6+G6</f>
+        <v>88496</v>
+      </c>
+      <c r="K6" s="8">
+        <v>293000000</v>
+      </c>
+      <c r="L6" s="8">
+        <v>282000000</v>
+      </c>
+      <c r="M6" s="8">
+        <v>260000000000</v>
+      </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="A7" t="s" s="6">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7">
         <f>1.267*10^9</f>
         <v>1267000000</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <f>6.036*10^9</f>
         <v>6036000000</v>
       </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="D7" s="8">
+        <v>5179000000</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3862000000</v>
+      </c>
+      <c r="F7" s="8">
+        <v>80277</v>
+      </c>
+      <c r="G7" s="8">
+        <v>10614</v>
+      </c>
+      <c r="H7" s="8">
+        <v>75946</v>
+      </c>
+      <c r="I7" s="8">
+        <v>6326</v>
+      </c>
+      <c r="J7" s="8">
+        <f>F7+G7</f>
+        <v>90891</v>
+      </c>
+      <c r="K7" s="8">
+        <v>370000000</v>
+      </c>
+      <c r="L7" s="8">
+        <v>349000000</v>
+      </c>
+      <c r="M7" s="8">
+        <v>419000000000</v>
+      </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7">
         <f>2.063*10^9</f>
         <v>2063000000</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <f>8.771*10^9</f>
         <v>8771000000</v>
       </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="D8" s="8">
+        <v>7611000000</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5506000000</v>
+      </c>
+      <c r="F8" s="8">
+        <v>124318</v>
+      </c>
+      <c r="G8" s="8">
+        <v>15275</v>
+      </c>
+      <c r="H8" s="8">
+        <v>128044</v>
+      </c>
+      <c r="I8" s="8">
+        <v>16992</v>
+      </c>
+      <c r="J8" s="8">
+        <f>F8+G8</f>
+        <v>139593</v>
+      </c>
+      <c r="K8" s="8">
+        <v>579000000</v>
+      </c>
+      <c r="L8" s="8">
+        <v>558000000</v>
+      </c>
+      <c r="M8" s="8">
+        <v>759000000000</v>
+      </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="A9" t="s" s="6">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7">
         <f>2.066*10^9</f>
         <v>2066000000</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <f>10.744*10^9</f>
         <v>10744000000</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="D9" s="8">
+        <v>9314000000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7070000000</v>
+      </c>
+      <c r="F9" s="8">
+        <v>161701</v>
+      </c>
+      <c r="G9" s="8">
+        <v>18966</v>
+      </c>
+      <c r="H9" s="8">
+        <v>163660</v>
+      </c>
+      <c r="I9" s="8">
+        <v>16097</v>
+      </c>
+      <c r="J9" s="8">
+        <f>F9+G9</f>
+        <v>180667</v>
+      </c>
+      <c r="K9" s="8">
+        <v>752000000</v>
+      </c>
+      <c r="L9" s="8">
+        <v>787000000</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1584000000000</v>
+      </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="A10" t="s" s="6">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7">
         <f>2.215*10^9</f>
         <v>2215000000</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <f>10.389*10^9</f>
         <v>10389000000</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
+        <v>9002000000</v>
+      </c>
+      <c r="E10" s="8">
+        <v>6617000000</v>
+      </c>
+      <c r="F10" s="8">
+        <v>182847</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2030</v>
+      </c>
+      <c r="H10" s="8">
+        <v>180338</v>
+      </c>
+      <c r="I10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="J10" s="8">
+        <f>F10+G10</f>
+        <v>184877</v>
+      </c>
+      <c r="K10" s="8">
+        <v>494000000</v>
+      </c>
+      <c r="L10" s="8">
+        <v>595000000</v>
+      </c>
+      <c r="M10" s="8">
+        <v>445000000000</v>
+      </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="A11" t="s" s="6">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7">
         <f>2.884*10^9</f>
         <v>2884000000</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <f>11.958*10^9</f>
         <v>11958000000</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="D11" s="8">
+        <v>10206000000</v>
+      </c>
+      <c r="E11" s="8">
+        <v>7307000000</v>
+      </c>
+      <c r="F11" s="8">
+        <v>199409</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1895</v>
+      </c>
+      <c r="H11" s="8">
+        <v>204081</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2340</v>
+      </c>
+      <c r="J11" s="8">
+        <f>F11+G11</f>
+        <v>201304</v>
+      </c>
+      <c r="K11" s="8">
+        <v>801000000</v>
+      </c>
+      <c r="L11" s="8">
+        <v>781000000</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1274000000000</v>
+      </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="A12" t="s" s="6">
+        <v>23</v>
+      </c>
+      <c r="B12" s="7">
         <f>3.66*10^9</f>
         <v>3660000000</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <f>13.757*10^9</f>
         <v>13757000000</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="D12" s="8">
+        <v>12057000000</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8384000000</v>
+      </c>
+      <c r="F12" s="8">
+        <v>232102</v>
+      </c>
+      <c r="G12" s="8">
+        <v>9289</v>
+      </c>
+      <c r="H12" s="8">
+        <v>228882</v>
+      </c>
+      <c r="I12" s="8">
+        <v>8941</v>
+      </c>
+      <c r="J12" s="8">
+        <f>F12+G12</f>
+        <v>241391</v>
+      </c>
+      <c r="K12" s="8">
+        <v>806000000</v>
+      </c>
+      <c r="L12" s="8">
+        <v>803000000</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1295000000000</v>
+      </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" t="s" s="6">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7">
         <f>4.847*10^9</f>
         <v>4847000000</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <f>17.719*10^9</f>
         <v>17719000000</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="D13" s="8">
+        <v>15967000000</v>
+      </c>
+      <c r="E13" s="8">
+        <v>11085000000</v>
+      </c>
+      <c r="F13" s="8">
+        <v>296884</v>
+      </c>
+      <c r="G13" s="8">
+        <v>11766</v>
+      </c>
+      <c r="H13" s="8">
+        <v>292731</v>
+      </c>
+      <c r="I13" s="8">
+        <v>13109</v>
+      </c>
+      <c r="J13" s="8">
+        <f>F13+G13</f>
+        <v>308650</v>
+      </c>
+      <c r="K13" s="8">
+        <v>688000000</v>
+      </c>
+      <c r="L13" s="8">
+        <v>739000000</v>
+      </c>
+      <c r="M13" s="8">
+        <v>978000000000</v>
+      </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="A14" t="s" s="6">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7">
         <f>5.46*10^9</f>
         <v>5460000000</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <f>18.756*10^9</f>
         <v>18756000000</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="D14" s="8">
+        <v>16861000000</v>
+      </c>
+      <c r="E14" s="8">
+        <v>11322000000</v>
+      </c>
+      <c r="F14" s="8">
+        <v>295324</v>
+      </c>
+      <c r="G14" s="8">
+        <v>14724</v>
+      </c>
+      <c r="H14" s="8">
+        <v>291189</v>
+      </c>
+      <c r="I14" s="8">
+        <v>14218</v>
+      </c>
+      <c r="J14" s="8">
+        <f>F14+G14</f>
+        <v>310048</v>
+      </c>
+      <c r="K14" s="8">
+        <v>616000000</v>
+      </c>
+      <c r="L14" s="8">
+        <v>688000000</v>
+      </c>
+      <c r="M14" s="8">
+        <v>846000000000</v>
+      </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="A15" t="s" s="6">
+        <v>26</v>
+      </c>
+      <c r="B15" s="7">
         <f>4.234*10^9</f>
         <v>4234000000</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <f>16.934*10^9</f>
         <v>16934000000</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="D15" s="8">
+        <v>14602000000</v>
+      </c>
+      <c r="E15" s="8">
+        <v>10521000000</v>
+      </c>
+      <c r="F15" s="8">
+        <v>238533</v>
+      </c>
+      <c r="G15" s="8">
+        <v>16162</v>
+      </c>
+      <c r="H15" s="8">
+        <v>242169</v>
+      </c>
+      <c r="I15" s="8">
+        <v>16411</v>
+      </c>
+      <c r="J15" s="8">
+        <f>F15+G15</f>
+        <v>254695</v>
+      </c>
+      <c r="K15" s="8">
+        <v>866000000</v>
+      </c>
+      <c r="L15" s="8">
+        <v>769000000</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1133000000000</v>
+      </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="A16" t="s" s="6">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7">
         <f>5.382*10^9</f>
         <v>5382000000</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <f>21.454*10^9</f>
         <v>21454000000</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="D16" s="8">
+        <v>18629000000</v>
+      </c>
+      <c r="E16" s="8">
+        <v>13480000000</v>
+      </c>
+      <c r="F16" s="8">
+        <v>325158</v>
+      </c>
+      <c r="G16" s="8">
+        <v>18672</v>
+      </c>
+      <c r="H16" s="8">
+        <v>345988</v>
+      </c>
+      <c r="I16" s="8">
+        <v>19935</v>
+      </c>
+      <c r="J16" s="8">
+        <f>F16+G16</f>
+        <v>343830</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1117000000</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1101300000</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2100000000000</v>
+      </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="A17" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7">
         <f>5.777*10^9</f>
         <v>5777000000</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <f>24.318*10^9</f>
         <v>24318000000</v>
       </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="D17" s="8">
+        <v>21307000000</v>
+      </c>
+      <c r="E17" s="8">
+        <v>15785000000</v>
+      </c>
+      <c r="F17" s="8">
+        <v>388131</v>
+      </c>
+      <c r="G17" s="8">
+        <v>17147</v>
+      </c>
+      <c r="H17" s="8">
+        <v>419088</v>
+      </c>
+      <c r="I17" s="8">
+        <v>20613</v>
+      </c>
+      <c r="J17" s="8">
+        <f>F17+G17</f>
+        <v>405278</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1310000000</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1151000000</v>
+      </c>
+      <c r="M17" s="8">
+        <v>2462000000000</v>
+      </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B18" s="9">
+      <c r="A18" t="s" s="6">
+        <v>29</v>
+      </c>
+      <c r="B18" s="7">
         <f>4.511*10^9</f>
         <v>4511000000</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <f>23.329*10^9</f>
         <v>23329000000</v>
       </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="D18" s="8">
+        <v>19963000000</v>
+      </c>
+      <c r="E18" s="8">
+        <v>15755000000</v>
+      </c>
+      <c r="F18" s="8">
+        <v>412180</v>
+      </c>
+      <c r="G18" s="8">
+        <v>10695</v>
+      </c>
+      <c r="H18" s="8">
+        <v>421371</v>
+      </c>
+      <c r="I18" s="8">
+        <v>19437</v>
+      </c>
+      <c r="J18" s="8">
+        <f>F18+G18</f>
+        <v>422875</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1529000000</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1361000000</v>
+      </c>
+      <c r="M18" s="8">
+        <v>3889000000000</v>
+      </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="A19" t="s" s="6">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7">
         <f>4.533*10^9</f>
         <v>4533000000</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <f>24.927*10^9</f>
         <v>24927000000</v>
       </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="D19" s="8">
+        <v>21268000000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>17179000000</v>
+      </c>
+      <c r="F19" s="8">
+        <v>446915</v>
+      </c>
+      <c r="G19" s="8">
+        <v>19225</v>
+      </c>
+      <c r="H19" s="8">
+        <v>460211</v>
+      </c>
+      <c r="I19" s="8">
+        <v>19489</v>
+      </c>
+      <c r="J19" s="8">
+        <f>F19+G19</f>
+        <v>466140</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1509000000</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1231000000</v>
+      </c>
+      <c r="M19" s="8">
+        <v>3653000000000</v>
+      </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="A20" t="s" s="6">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7">
         <f>4.178*10^9</f>
         <v>4178000000</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <f>23.35*10^9</f>
         <v>23350000000</v>
       </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="D20" s="8">
+        <v>19625000000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>15957000000</v>
+      </c>
+      <c r="F20" s="8">
+        <v>419074</v>
+      </c>
+      <c r="G20" s="8">
+        <v>15985</v>
+      </c>
+      <c r="H20" s="8">
+        <v>416800</v>
+      </c>
+      <c r="I20" s="8">
+        <v>13688</v>
+      </c>
+      <c r="J20" s="8">
+        <f>F20+G20</f>
+        <v>435059</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1559000000</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1178000000</v>
+      </c>
+      <c r="M20" s="8">
+        <v>3980000000000</v>
+      </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="A21" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4438000000</v>
+      </c>
+      <c r="C21" s="8">
+        <v>25167000000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>21563000000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>17498000000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>461538</v>
+      </c>
+      <c r="G21" s="8">
+        <v>22969</v>
+      </c>
+      <c r="H21" s="8">
+        <v>476777</v>
+      </c>
+      <c r="I21" s="8">
+        <v>18212</v>
+      </c>
+      <c r="J21" s="8">
+        <v>484507</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1438000000</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1124000000</v>
+      </c>
+      <c r="M21" s="8">
+        <v>3202000000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/TeslaNumbers.xlsx
+++ b/TeslaNumbers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>quarter</t>
   </si>
@@ -22,25 +22,28 @@
     <t>revenue</t>
   </si>
   <si>
-    <t>carRevenue</t>
-  </si>
-  <si>
-    <t>carCostOfRevenue</t>
-  </si>
-  <si>
-    <t>deliveriesModel3Y</t>
-  </si>
-  <si>
-    <t>deliveriesOtherModels</t>
-  </si>
-  <si>
-    <t>productionModel3Y</t>
-  </si>
-  <si>
-    <t>productionOtherModels</t>
-  </si>
-  <si>
-    <t>carNumCars</t>
+    <t>automotiveRevenue</t>
+  </si>
+  <si>
+    <t>automotiveCostOfRevenue</t>
+  </si>
+  <si>
+    <t>deliveredModel3Y</t>
+  </si>
+  <si>
+    <t>deliveredOtherModels</t>
+  </si>
+  <si>
+    <t>producedModel3Y</t>
+  </si>
+  <si>
+    <t>producedOtherModels</t>
+  </si>
+  <si>
+    <t>producedCars</t>
+  </si>
+  <si>
+    <t>deliveredCars</t>
   </si>
   <si>
     <t>energyRevenue</t>
@@ -1368,14 +1371,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="13" width="16.3516" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="14" width="16.3516" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1">
@@ -1418,10 +1421,13 @@
       <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4">
         <f>0.566*10^9</f>
@@ -1450,22 +1456,26 @@
         <v>14163</v>
       </c>
       <c r="J2" s="5">
+        <f>H2+I2</f>
+        <v>77138</v>
+      </c>
+      <c r="K2" s="5">
         <f>F2+G2</f>
         <v>63019</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>324000000</v>
       </c>
-      <c r="L2" s="5">
+      <c r="M2" s="5">
         <v>316000000</v>
       </c>
-      <c r="M2" s="5">
+      <c r="N2" s="5">
         <v>229000000000</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="7">
         <f>0.921*10^9</f>
@@ -1494,22 +1504,26 @@
         <v>14517</v>
       </c>
       <c r="J3" s="8">
+        <f>H3+I3</f>
+        <v>87048</v>
+      </c>
+      <c r="K3" s="8">
         <f>F3+G3</f>
         <v>95356</v>
       </c>
-      <c r="K3" s="8">
+      <c r="L3" s="8">
         <v>369000000</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>326000000</v>
       </c>
-      <c r="M3" s="8">
+      <c r="N3" s="8">
         <v>415000000000</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="7">
         <f>1.191*10^9</f>
@@ -1538,22 +1552,26 @@
         <v>16318</v>
       </c>
       <c r="J4" s="8">
+        <f>H4+I4</f>
+        <v>96155</v>
+      </c>
+      <c r="K4" s="8">
         <f>F4+G4</f>
         <v>97186</v>
       </c>
-      <c r="K4" s="8">
+      <c r="L4" s="8">
         <v>402000000</v>
       </c>
-      <c r="L4" s="8">
+      <c r="M4" s="8">
         <v>314000000</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>477000000000</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="7">
         <f>1.391*10^9</f>
@@ -1582,22 +1600,26 @@
         <v>17933</v>
       </c>
       <c r="J5" s="8">
+        <f>H5+I5</f>
+        <v>104891</v>
+      </c>
+      <c r="K5" s="8">
         <f>F5+G5</f>
         <v>112095</v>
       </c>
-      <c r="K5" s="8">
+      <c r="L5" s="8">
         <v>436000000</v>
       </c>
-      <c r="L5" s="8">
+      <c r="M5" s="8">
         <v>385000000</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>530000000000</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7">
         <f>1.234*10^9</f>
@@ -1626,22 +1648,26 @@
         <v>15390</v>
       </c>
       <c r="J6" s="8">
+        <f>H6+I6</f>
+        <v>102672</v>
+      </c>
+      <c r="K6" s="8">
         <f>F6+G6</f>
         <v>88496</v>
       </c>
-      <c r="K6" s="8">
+      <c r="L6" s="8">
         <v>293000000</v>
       </c>
-      <c r="L6" s="8">
+      <c r="M6" s="8">
         <v>282000000</v>
       </c>
-      <c r="M6" s="8">
+      <c r="N6" s="8">
         <v>260000000000</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7">
         <f>1.267*10^9</f>
@@ -1670,22 +1696,26 @@
         <v>6326</v>
       </c>
       <c r="J7" s="8">
+        <f>H7+I7</f>
+        <v>82272</v>
+      </c>
+      <c r="K7" s="8">
         <f>F7+G7</f>
         <v>90891</v>
       </c>
-      <c r="K7" s="8">
+      <c r="L7" s="8">
         <v>370000000</v>
       </c>
-      <c r="L7" s="8">
+      <c r="M7" s="8">
         <v>349000000</v>
       </c>
-      <c r="M7" s="8">
+      <c r="N7" s="8">
         <v>419000000000</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7">
         <f>2.063*10^9</f>
@@ -1714,22 +1744,26 @@
         <v>16992</v>
       </c>
       <c r="J8" s="8">
+        <f>H8+I8</f>
+        <v>145036</v>
+      </c>
+      <c r="K8" s="8">
         <f>F8+G8</f>
         <v>139593</v>
       </c>
-      <c r="K8" s="8">
+      <c r="L8" s="8">
         <v>579000000</v>
       </c>
-      <c r="L8" s="8">
+      <c r="M8" s="8">
         <v>558000000</v>
       </c>
-      <c r="M8" s="8">
+      <c r="N8" s="8">
         <v>759000000000</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="7">
         <f>2.066*10^9</f>
@@ -1758,22 +1792,26 @@
         <v>16097</v>
       </c>
       <c r="J9" s="8">
+        <f>H9+I9</f>
+        <v>179757</v>
+      </c>
+      <c r="K9" s="8">
         <f>F9+G9</f>
         <v>180667</v>
       </c>
-      <c r="K9" s="8">
+      <c r="L9" s="8">
         <v>752000000</v>
       </c>
-      <c r="L9" s="8">
+      <c r="M9" s="8">
         <v>787000000</v>
       </c>
-      <c r="M9" s="8">
+      <c r="N9" s="8">
         <v>1584000000000</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7">
         <f>2.215*10^9</f>
@@ -1802,22 +1840,26 @@
         <v>0</v>
       </c>
       <c r="J10" s="8">
+        <f>H10+I10</f>
+        <v>180338</v>
+      </c>
+      <c r="K10" s="8">
         <f>F10+G10</f>
         <v>184877</v>
       </c>
-      <c r="K10" s="8">
+      <c r="L10" s="8">
         <v>494000000</v>
       </c>
-      <c r="L10" s="8">
+      <c r="M10" s="8">
         <v>595000000</v>
       </c>
-      <c r="M10" s="8">
+      <c r="N10" s="8">
         <v>445000000000</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7">
         <f>2.884*10^9</f>
@@ -1846,22 +1888,26 @@
         <v>2340</v>
       </c>
       <c r="J11" s="8">
+        <f>H11+I11</f>
+        <v>206421</v>
+      </c>
+      <c r="K11" s="8">
         <f>F11+G11</f>
         <v>201304</v>
       </c>
-      <c r="K11" s="8">
+      <c r="L11" s="8">
         <v>801000000</v>
       </c>
-      <c r="L11" s="8">
+      <c r="M11" s="8">
         <v>781000000</v>
       </c>
-      <c r="M11" s="8">
+      <c r="N11" s="8">
         <v>1274000000000</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7">
         <f>3.66*10^9</f>
@@ -1890,22 +1936,26 @@
         <v>8941</v>
       </c>
       <c r="J12" s="8">
+        <f>H12+I12</f>
+        <v>237823</v>
+      </c>
+      <c r="K12" s="8">
         <f>F12+G12</f>
         <v>241391</v>
       </c>
-      <c r="K12" s="8">
+      <c r="L12" s="8">
         <v>806000000</v>
       </c>
-      <c r="L12" s="8">
+      <c r="M12" s="8">
         <v>803000000</v>
       </c>
-      <c r="M12" s="8">
+      <c r="N12" s="8">
         <v>1295000000000</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7">
         <f>4.847*10^9</f>
@@ -1934,22 +1984,26 @@
         <v>13109</v>
       </c>
       <c r="J13" s="8">
+        <f>H13+I13</f>
+        <v>305840</v>
+      </c>
+      <c r="K13" s="8">
         <f>F13+G13</f>
         <v>308650</v>
       </c>
-      <c r="K13" s="8">
+      <c r="L13" s="8">
         <v>688000000</v>
       </c>
-      <c r="L13" s="8">
+      <c r="M13" s="8">
         <v>739000000</v>
       </c>
-      <c r="M13" s="8">
+      <c r="N13" s="8">
         <v>978000000000</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="7">
         <f>5.46*10^9</f>
@@ -1978,22 +2032,26 @@
         <v>14218</v>
       </c>
       <c r="J14" s="8">
+        <f>H14+I14</f>
+        <v>305407</v>
+      </c>
+      <c r="K14" s="8">
         <f>F14+G14</f>
         <v>310048</v>
       </c>
-      <c r="K14" s="8">
+      <c r="L14" s="8">
         <v>616000000</v>
       </c>
-      <c r="L14" s="8">
+      <c r="M14" s="8">
         <v>688000000</v>
       </c>
-      <c r="M14" s="8">
+      <c r="N14" s="8">
         <v>846000000000</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="7">
         <f>4.234*10^9</f>
@@ -2022,22 +2080,26 @@
         <v>16411</v>
       </c>
       <c r="J15" s="8">
+        <f>H15+I15</f>
+        <v>258580</v>
+      </c>
+      <c r="K15" s="8">
         <f>F15+G15</f>
         <v>254695</v>
       </c>
-      <c r="K15" s="8">
+      <c r="L15" s="8">
         <v>866000000</v>
       </c>
-      <c r="L15" s="8">
+      <c r="M15" s="8">
         <v>769000000</v>
       </c>
-      <c r="M15" s="8">
+      <c r="N15" s="8">
         <v>1133000000000</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="7">
         <f>5.382*10^9</f>
@@ -2066,22 +2128,26 @@
         <v>19935</v>
       </c>
       <c r="J16" s="8">
+        <f>H16+I16</f>
+        <v>365923</v>
+      </c>
+      <c r="K16" s="8">
         <f>F16+G16</f>
         <v>343830</v>
       </c>
-      <c r="K16" s="8">
+      <c r="L16" s="8">
         <v>1117000000</v>
       </c>
-      <c r="L16" s="8">
+      <c r="M16" s="8">
         <v>1101300000</v>
       </c>
-      <c r="M16" s="8">
+      <c r="N16" s="8">
         <v>2100000000000</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7">
         <f>5.777*10^9</f>
@@ -2110,22 +2176,26 @@
         <v>20613</v>
       </c>
       <c r="J17" s="8">
+        <f>H17+I17</f>
+        <v>439701</v>
+      </c>
+      <c r="K17" s="8">
         <f>F17+G17</f>
         <v>405278</v>
       </c>
-      <c r="K17" s="8">
+      <c r="L17" s="8">
         <v>1310000000</v>
       </c>
-      <c r="L17" s="8">
+      <c r="M17" s="8">
         <v>1151000000</v>
       </c>
-      <c r="M17" s="8">
+      <c r="N17" s="8">
         <v>2462000000000</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="7">
         <f>4.511*10^9</f>
@@ -2154,22 +2224,26 @@
         <v>19437</v>
       </c>
       <c r="J18" s="8">
+        <f>H18+I18</f>
+        <v>440808</v>
+      </c>
+      <c r="K18" s="8">
         <f>F18+G18</f>
         <v>422875</v>
       </c>
-      <c r="K18" s="8">
+      <c r="L18" s="8">
         <v>1529000000</v>
       </c>
-      <c r="L18" s="8">
+      <c r="M18" s="8">
         <v>1361000000</v>
       </c>
-      <c r="M18" s="8">
+      <c r="N18" s="8">
         <v>3889000000000</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="7">
         <f>4.533*10^9</f>
@@ -2198,22 +2272,26 @@
         <v>19489</v>
       </c>
       <c r="J19" s="8">
+        <f>H19+I19</f>
+        <v>479700</v>
+      </c>
+      <c r="K19" s="8">
         <f>F19+G19</f>
         <v>466140</v>
       </c>
-      <c r="K19" s="8">
+      <c r="L19" s="8">
         <v>1509000000</v>
       </c>
-      <c r="L19" s="8">
+      <c r="M19" s="8">
         <v>1231000000</v>
       </c>
-      <c r="M19" s="8">
+      <c r="N19" s="8">
         <v>3653000000000</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" s="7">
         <f>4.178*10^9</f>
@@ -2242,22 +2320,26 @@
         <v>13688</v>
       </c>
       <c r="J20" s="8">
+        <f>H20+I20</f>
+        <v>430488</v>
+      </c>
+      <c r="K20" s="8">
         <f>F20+G20</f>
         <v>435059</v>
       </c>
-      <c r="K20" s="8">
+      <c r="L20" s="8">
         <v>1559000000</v>
       </c>
-      <c r="L20" s="8">
+      <c r="M20" s="8">
         <v>1178000000</v>
       </c>
-      <c r="M20" s="8">
+      <c r="N20" s="8">
         <v>3980000000000</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="7">
         <v>4438000000</v>
@@ -2284,15 +2366,19 @@
         <v>18212</v>
       </c>
       <c r="J21" s="8">
+        <f>H21+I21</f>
+        <v>494989</v>
+      </c>
+      <c r="K21" s="8">
         <v>484507</v>
       </c>
-      <c r="K21" s="8">
+      <c r="L21" s="8">
         <v>1438000000</v>
       </c>
-      <c r="L21" s="8">
+      <c r="M21" s="8">
         <v>1124000000</v>
       </c>
-      <c r="M21" s="8">
+      <c r="N21" s="8">
         <v>3202000000000</v>
       </c>
     </row>

--- a/TeslaNumbers.xlsx
+++ b/TeslaNumbers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>quarter</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>energyStorage</t>
+  </si>
+  <si>
+    <t>solarDeployed</t>
+  </si>
+  <si>
+    <t>superchargerStationsAccumulated</t>
+  </si>
+  <si>
+    <t>superchargerConnectorsAccumulated</t>
   </si>
   <si>
     <t>Q1 2019</t>
@@ -1371,14 +1380,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="14" width="16.3516" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="17" width="16.3516" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1">
@@ -1424,10 +1433,19 @@
       <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4">
         <f>0.566*10^9</f>
@@ -1472,10 +1490,19 @@
       <c r="N2" s="5">
         <v>229000000000</v>
       </c>
+      <c r="O2" s="5">
+        <v>47</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1490</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>12767</v>
+      </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="7">
         <f>0.921*10^9</f>
@@ -1520,10 +1547,19 @@
       <c r="N3" s="8">
         <v>415000000000</v>
       </c>
+      <c r="O3" s="8">
+        <v>29</v>
+      </c>
+      <c r="P3" s="8">
+        <v>1587</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>13881</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7">
         <f>1.191*10^9</f>
@@ -1568,10 +1604,19 @@
       <c r="N4" s="8">
         <v>477000000000</v>
       </c>
+      <c r="O4" s="8">
+        <v>43</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1653</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>14658</v>
+      </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="7">
         <f>1.391*10^9</f>
@@ -1616,10 +1661,19 @@
       <c r="N5" s="8">
         <v>530000000000</v>
       </c>
+      <c r="O5" s="8">
+        <v>54</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1821</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>16104</v>
+      </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7">
         <f>1.234*10^9</f>
@@ -1664,10 +1718,19 @@
       <c r="N6" s="8">
         <v>260000000000</v>
       </c>
+      <c r="O6" s="8">
+        <v>35</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1917</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>17007</v>
+      </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7">
         <f>1.267*10^9</f>
@@ -1712,10 +1775,19 @@
       <c r="N7" s="8">
         <v>419000000000</v>
       </c>
+      <c r="O7" s="8">
+        <v>27</v>
+      </c>
+      <c r="P7" s="8">
+        <v>2035</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>18100</v>
+      </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7">
         <f>2.063*10^9</f>
@@ -1760,10 +1832,19 @@
       <c r="N8" s="8">
         <v>759000000000</v>
       </c>
+      <c r="O8" s="8">
+        <v>57</v>
+      </c>
+      <c r="P8" s="8">
+        <v>2181</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>19437</v>
+      </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B9" s="7">
         <f>2.066*10^9</f>
@@ -1808,10 +1889,19 @@
       <c r="N9" s="8">
         <v>1584000000000</v>
       </c>
+      <c r="O9" s="8">
+        <v>86</v>
+      </c>
+      <c r="P9" s="8">
+        <v>2564</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>23277</v>
+      </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7">
         <f>2.215*10^9</f>
@@ -1856,10 +1946,19 @@
       <c r="N10" s="8">
         <v>445000000000</v>
       </c>
+      <c r="O10" s="8">
+        <v>92</v>
+      </c>
+      <c r="P10" s="8">
+        <v>2699</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>24515</v>
+      </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B11" s="7">
         <f>2.884*10^9</f>
@@ -1904,10 +2003,19 @@
       <c r="N11" s="8">
         <v>1274000000000</v>
       </c>
+      <c r="O11" s="8">
+        <v>85</v>
+      </c>
+      <c r="P11" s="8">
+        <v>2966</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>26900</v>
+      </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="7">
         <f>3.66*10^9</f>
@@ -1952,10 +2060,19 @@
       <c r="N12" s="8">
         <v>1295000000000</v>
       </c>
+      <c r="O12" s="8">
+        <v>83</v>
+      </c>
+      <c r="P12" s="8">
+        <v>3254</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>29281</v>
+      </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7">
         <f>4.847*10^9</f>
@@ -2000,10 +2117,19 @@
       <c r="N13" s="8">
         <v>978000000000</v>
       </c>
+      <c r="O13" s="8">
+        <v>85</v>
+      </c>
+      <c r="P13" s="8">
+        <v>3476</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>31498</v>
+      </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7">
         <f>5.46*10^9</f>
@@ -2048,10 +2174,19 @@
       <c r="N14" s="8">
         <v>846000000000</v>
       </c>
+      <c r="O14" s="8">
+        <v>48</v>
+      </c>
+      <c r="P14" s="8">
+        <v>3724</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>33657</v>
+      </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7">
         <f>4.234*10^9</f>
@@ -2096,10 +2231,19 @@
       <c r="N15" s="8">
         <v>1133000000000</v>
       </c>
+      <c r="O15" s="8">
+        <v>106</v>
+      </c>
+      <c r="P15" s="8">
+        <v>3971</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>36165</v>
+      </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="7">
         <f>5.382*10^9</f>
@@ -2144,10 +2288,19 @@
       <c r="N16" s="8">
         <v>2100000000000</v>
       </c>
+      <c r="O16" s="8">
+        <v>94</v>
+      </c>
+      <c r="P16" s="8">
+        <v>4283</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>38883</v>
+      </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="7">
         <f>5.777*10^9</f>
@@ -2192,10 +2345,19 @@
       <c r="N17" s="8">
         <v>2462000000000</v>
       </c>
+      <c r="O17" s="8">
+        <v>100</v>
+      </c>
+      <c r="P17" s="8">
+        <v>4678</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>42419</v>
+      </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" s="7">
         <f>4.511*10^9</f>
@@ -2240,10 +2402,19 @@
       <c r="N18" s="8">
         <v>3889000000000</v>
       </c>
+      <c r="O18" s="8">
+        <v>67</v>
+      </c>
+      <c r="P18" s="8">
+        <v>4947</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>45169</v>
+      </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" s="7">
         <f>4.533*10^9</f>
@@ -2288,10 +2459,19 @@
       <c r="N19" s="8">
         <v>3653000000000</v>
       </c>
+      <c r="O19" s="8">
+        <v>66</v>
+      </c>
+      <c r="P19" s="8">
+        <v>5265</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>48082</v>
+      </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" s="7">
         <f>4.178*10^9</f>
@@ -2336,10 +2516,19 @@
       <c r="N20" s="8">
         <v>3980000000000</v>
       </c>
+      <c r="O20" s="8">
+        <v>49</v>
+      </c>
+      <c r="P20" s="8">
+        <v>5595</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>51105</v>
+      </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" s="7">
         <v>4438000000</v>
@@ -2380,6 +2569,15 @@
       </c>
       <c r="N21" s="8">
         <v>3202000000000</v>
+      </c>
+      <c r="O21" s="8">
+        <v>41</v>
+      </c>
+      <c r="P21" s="8">
+        <v>5952</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>54892</v>
       </c>
     </row>
   </sheetData>

--- a/TeslaNumbers.xlsx
+++ b/TeslaNumbers.xlsx
@@ -1488,10 +1488,10 @@
         <v>316000000</v>
       </c>
       <c r="N2" s="5">
-        <v>229000000000</v>
+        <v>229000000</v>
       </c>
       <c r="O2" s="5">
-        <v>47</v>
+        <v>47000000</v>
       </c>
       <c r="P2" s="5">
         <v>1490</v>
@@ -1545,10 +1545,10 @@
         <v>326000000</v>
       </c>
       <c r="N3" s="8">
-        <v>415000000000</v>
+        <v>415000000</v>
       </c>
       <c r="O3" s="8">
-        <v>29</v>
+        <v>29000000</v>
       </c>
       <c r="P3" s="8">
         <v>1587</v>
@@ -1602,10 +1602,10 @@
         <v>314000000</v>
       </c>
       <c r="N4" s="8">
-        <v>477000000000</v>
+        <v>477000000</v>
       </c>
       <c r="O4" s="8">
-        <v>43</v>
+        <v>43000000</v>
       </c>
       <c r="P4" s="8">
         <v>1653</v>
@@ -1659,10 +1659,10 @@
         <v>385000000</v>
       </c>
       <c r="N5" s="8">
-        <v>530000000000</v>
+        <v>530000000</v>
       </c>
       <c r="O5" s="8">
-        <v>54</v>
+        <v>54000000</v>
       </c>
       <c r="P5" s="8">
         <v>1821</v>
@@ -1716,10 +1716,10 @@
         <v>282000000</v>
       </c>
       <c r="N6" s="8">
-        <v>260000000000</v>
+        <v>260000000</v>
       </c>
       <c r="O6" s="8">
-        <v>35</v>
+        <v>35000000</v>
       </c>
       <c r="P6" s="8">
         <v>1917</v>
@@ -1773,10 +1773,10 @@
         <v>349000000</v>
       </c>
       <c r="N7" s="8">
-        <v>419000000000</v>
+        <v>419000000</v>
       </c>
       <c r="O7" s="8">
-        <v>27</v>
+        <v>27000000</v>
       </c>
       <c r="P7" s="8">
         <v>2035</v>
@@ -1830,10 +1830,10 @@
         <v>558000000</v>
       </c>
       <c r="N8" s="8">
-        <v>759000000000</v>
+        <v>759000000</v>
       </c>
       <c r="O8" s="8">
-        <v>57</v>
+        <v>57000000</v>
       </c>
       <c r="P8" s="8">
         <v>2181</v>
@@ -1887,10 +1887,10 @@
         <v>787000000</v>
       </c>
       <c r="N9" s="8">
-        <v>1584000000000</v>
+        <v>1584000000</v>
       </c>
       <c r="O9" s="8">
-        <v>86</v>
+        <v>86000000</v>
       </c>
       <c r="P9" s="8">
         <v>2564</v>
@@ -1944,10 +1944,10 @@
         <v>595000000</v>
       </c>
       <c r="N10" s="8">
-        <v>445000000000</v>
+        <v>445000000</v>
       </c>
       <c r="O10" s="8">
-        <v>92</v>
+        <v>92000000</v>
       </c>
       <c r="P10" s="8">
         <v>2699</v>
@@ -2001,10 +2001,10 @@
         <v>781000000</v>
       </c>
       <c r="N11" s="8">
-        <v>1274000000000</v>
+        <v>1274000000</v>
       </c>
       <c r="O11" s="8">
-        <v>85</v>
+        <v>85000000</v>
       </c>
       <c r="P11" s="8">
         <v>2966</v>
@@ -2058,10 +2058,10 @@
         <v>803000000</v>
       </c>
       <c r="N12" s="8">
-        <v>1295000000000</v>
+        <v>1295000000</v>
       </c>
       <c r="O12" s="8">
-        <v>83</v>
+        <v>83000000</v>
       </c>
       <c r="P12" s="8">
         <v>3254</v>
@@ -2115,10 +2115,10 @@
         <v>739000000</v>
       </c>
       <c r="N13" s="8">
-        <v>978000000000</v>
+        <v>978000000</v>
       </c>
       <c r="O13" s="8">
-        <v>85</v>
+        <v>85000000</v>
       </c>
       <c r="P13" s="8">
         <v>3476</v>
@@ -2172,10 +2172,10 @@
         <v>688000000</v>
       </c>
       <c r="N14" s="8">
-        <v>846000000000</v>
+        <v>846000000</v>
       </c>
       <c r="O14" s="8">
-        <v>48</v>
+        <v>48000000</v>
       </c>
       <c r="P14" s="8">
         <v>3724</v>
@@ -2229,10 +2229,10 @@
         <v>769000000</v>
       </c>
       <c r="N15" s="8">
-        <v>1133000000000</v>
+        <v>1133000000</v>
       </c>
       <c r="O15" s="8">
-        <v>106</v>
+        <v>106000000</v>
       </c>
       <c r="P15" s="8">
         <v>3971</v>
@@ -2286,10 +2286,10 @@
         <v>1101300000</v>
       </c>
       <c r="N16" s="8">
-        <v>2100000000000</v>
+        <v>2100000000</v>
       </c>
       <c r="O16" s="8">
-        <v>94</v>
+        <v>94000000</v>
       </c>
       <c r="P16" s="8">
         <v>4283</v>
@@ -2343,10 +2343,10 @@
         <v>1151000000</v>
       </c>
       <c r="N17" s="8">
-        <v>2462000000000</v>
+        <v>2462000000</v>
       </c>
       <c r="O17" s="8">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="P17" s="8">
         <v>4678</v>
@@ -2400,10 +2400,10 @@
         <v>1361000000</v>
       </c>
       <c r="N18" s="8">
-        <v>3889000000000</v>
+        <v>3889000000</v>
       </c>
       <c r="O18" s="8">
-        <v>67</v>
+        <v>67000000</v>
       </c>
       <c r="P18" s="8">
         <v>4947</v>
@@ -2457,10 +2457,10 @@
         <v>1231000000</v>
       </c>
       <c r="N19" s="8">
-        <v>3653000000000</v>
+        <v>3653000000</v>
       </c>
       <c r="O19" s="8">
-        <v>66</v>
+        <v>66000000</v>
       </c>
       <c r="P19" s="8">
         <v>5265</v>
@@ -2514,10 +2514,10 @@
         <v>1178000000</v>
       </c>
       <c r="N20" s="8">
-        <v>3980000000000</v>
+        <v>3980000000</v>
       </c>
       <c r="O20" s="8">
-        <v>49</v>
+        <v>49000000</v>
       </c>
       <c r="P20" s="8">
         <v>5595</v>
@@ -2568,10 +2568,10 @@
         <v>1124000000</v>
       </c>
       <c r="N21" s="8">
-        <v>3202000000000</v>
+        <v>3202000000</v>
       </c>
       <c r="O21" s="8">
-        <v>41</v>
+        <v>41000000</v>
       </c>
       <c r="P21" s="8">
         <v>5952</v>

--- a/TeslaNumbers.xlsx
+++ b/TeslaNumbers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>quarter</t>
   </si>
@@ -22,40 +22,73 @@
     <t>revenue</t>
   </si>
   <si>
+    <t>operatingExpenses</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>freeCashFlow</t>
+  </si>
+  <si>
+    <t>researchAndDevelopementExpenses</t>
+  </si>
+  <si>
+    <t>sellingGeneralAndAdministrativeExpenses</t>
+  </si>
+  <si>
+    <t>restructuringExpenses</t>
+  </si>
+  <si>
     <t>automotiveRevenue</t>
   </si>
   <si>
     <t>automotiveCostOfRevenue</t>
   </si>
   <si>
+    <t>automotiveRegulatoryCreditsRevenue</t>
+  </si>
+  <si>
+    <t>automotiveLeasingRevenue</t>
+  </si>
+  <si>
+    <t>automotiveLeasingCostOfRevenue</t>
+  </si>
+  <si>
+    <t>serviceRevenue</t>
+  </si>
+  <si>
+    <t>serviceCostOfRevenue</t>
+  </si>
+  <si>
+    <t>energyRevenue</t>
+  </si>
+  <si>
+    <t>energyCostOfRevenue</t>
+  </si>
+  <si>
+    <t>energyStorage</t>
+  </si>
+  <si>
+    <t>solarDeployed</t>
+  </si>
+  <si>
+    <t>deliveredCars</t>
+  </si>
+  <si>
     <t>deliveredModel3Y</t>
   </si>
   <si>
     <t>deliveredOtherModels</t>
   </si>
   <si>
+    <t>producedCars</t>
+  </si>
+  <si>
     <t>producedModel3Y</t>
   </si>
   <si>
     <t>producedOtherModels</t>
-  </si>
-  <si>
-    <t>producedCars</t>
-  </si>
-  <si>
-    <t>deliveredCars</t>
-  </si>
-  <si>
-    <t>energyRevenue</t>
-  </si>
-  <si>
-    <t>energyCostOfRevenue</t>
-  </si>
-  <si>
-    <t>energyStorage</t>
-  </si>
-  <si>
-    <t>solarDeployed</t>
   </si>
   <si>
     <t>superchargerStationsAccumulated</t>
@@ -1380,14 +1413,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="17" width="16.3516" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="28" width="16.3516" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1">
@@ -1442,10 +1475,43 @@
       <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4">
         <f>0.566*10^9</f>
@@ -1456,53 +1522,86 @@
         <v>4541000000</v>
       </c>
       <c r="D2" s="5">
+        <v>1088000000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2198000000</v>
+      </c>
+      <c r="F2" s="5">
+        <v>920000000</v>
+      </c>
+      <c r="G2" s="5">
+        <v>340000000</v>
+      </c>
+      <c r="H2" s="5">
+        <v>704000000</v>
+      </c>
+      <c r="I2" s="5">
+        <v>44</v>
+      </c>
+      <c r="J2" s="5">
         <v>3724000000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="K2" s="5">
         <v>2973000000</v>
       </c>
-      <c r="F2" s="5">
+      <c r="L2" s="5">
+        <v>216000000</v>
+      </c>
+      <c r="M2" s="5">
+        <v>215000000</v>
+      </c>
+      <c r="N2" s="5">
+        <v>117000000</v>
+      </c>
+      <c r="O2" s="5">
+        <v>493000000</v>
+      </c>
+      <c r="P2" s="5">
+        <v>686000000</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>324000000</v>
+      </c>
+      <c r="R2" s="5">
+        <v>316000000</v>
+      </c>
+      <c r="S2" s="5">
+        <v>229000000</v>
+      </c>
+      <c r="T2" s="5">
+        <v>47000000</v>
+      </c>
+      <c r="U2" s="5">
+        <f>V2+W2</f>
+        <v>63019</v>
+      </c>
+      <c r="V2" s="5">
         <v>50928</v>
       </c>
-      <c r="G2" s="5">
+      <c r="W2" s="5">
         <v>12091</v>
       </c>
-      <c r="H2" s="5">
+      <c r="X2" s="5">
+        <f>Y2+Z2</f>
+        <v>77138</v>
+      </c>
+      <c r="Y2" s="5">
         <v>62975</v>
       </c>
-      <c r="I2" s="5">
+      <c r="Z2" s="5">
         <v>14163</v>
       </c>
-      <c r="J2" s="5">
-        <f>H2+I2</f>
-        <v>77138</v>
-      </c>
-      <c r="K2" s="5">
-        <f>F2+G2</f>
-        <v>63019</v>
-      </c>
-      <c r="L2" s="5">
-        <v>324000000</v>
-      </c>
-      <c r="M2" s="5">
-        <v>316000000</v>
-      </c>
-      <c r="N2" s="5">
-        <v>229000000</v>
-      </c>
-      <c r="O2" s="5">
-        <v>47000000</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="AA2" s="5">
         <v>1490</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="AB2" s="5">
         <v>12767</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B3" s="7">
         <f>0.921*10^9</f>
@@ -1513,53 +1612,86 @@
         <v>6350000000</v>
       </c>
       <c r="D3" s="8">
+        <v>1088000000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>4955000000</v>
+      </c>
+      <c r="F3" s="8">
+        <v>614000000</v>
+      </c>
+      <c r="G3" s="8">
+        <v>324000000</v>
+      </c>
+      <c r="H3" s="8">
+        <v>647000000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>117</v>
+      </c>
+      <c r="J3" s="8">
         <v>5376000000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="K3" s="8">
         <v>4360000000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="L3" s="8">
+        <v>111000000</v>
+      </c>
+      <c r="M3" s="8">
+        <v>208000000</v>
+      </c>
+      <c r="N3" s="8">
+        <v>106000000</v>
+      </c>
+      <c r="O3" s="8">
+        <v>605000000</v>
+      </c>
+      <c r="P3" s="8">
+        <v>743000000</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>369000000</v>
+      </c>
+      <c r="R3" s="8">
+        <v>326000000</v>
+      </c>
+      <c r="S3" s="8">
+        <v>415000000</v>
+      </c>
+      <c r="T3" s="8">
+        <v>29000000</v>
+      </c>
+      <c r="U3" s="8">
+        <f>V3+W3</f>
+        <v>95356</v>
+      </c>
+      <c r="V3" s="8">
         <v>77634</v>
       </c>
-      <c r="G3" s="8">
+      <c r="W3" s="8">
         <v>17722</v>
       </c>
-      <c r="H3" s="8">
+      <c r="X3" s="8">
+        <f>Y3+Z3</f>
+        <v>87048</v>
+      </c>
+      <c r="Y3" s="8">
         <v>72531</v>
       </c>
-      <c r="I3" s="8">
+      <c r="Z3" s="8">
         <v>14517</v>
       </c>
-      <c r="J3" s="8">
-        <f>H3+I3</f>
-        <v>87048</v>
-      </c>
-      <c r="K3" s="8">
-        <f>F3+G3</f>
-        <v>95356</v>
-      </c>
-      <c r="L3" s="8">
-        <v>369000000</v>
-      </c>
-      <c r="M3" s="8">
-        <v>326000000</v>
-      </c>
-      <c r="N3" s="8">
-        <v>415000000</v>
-      </c>
-      <c r="O3" s="8">
-        <v>29000000</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="AA3" s="8">
         <v>1587</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="AB3" s="8">
         <v>13881</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B4" s="7">
         <f>1.191*10^9</f>
@@ -1570,53 +1702,86 @@
         <v>6303000000</v>
       </c>
       <c r="D4" s="8">
+        <v>930000000</v>
+      </c>
+      <c r="E4" s="8">
+        <v>5338000000</v>
+      </c>
+      <c r="F4" s="8">
+        <v>371000000</v>
+      </c>
+      <c r="G4" s="8">
+        <v>334000000</v>
+      </c>
+      <c r="H4" s="8">
+        <v>596000000</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
         <v>5353000000</v>
       </c>
-      <c r="E4" s="8">
+      <c r="K4" s="8">
         <v>4131000000</v>
       </c>
-      <c r="F4" s="8">
+      <c r="L4" s="8">
+        <v>134000000</v>
+      </c>
+      <c r="M4" s="8">
+        <v>221000000</v>
+      </c>
+      <c r="N4" s="8">
+        <v>117000000</v>
+      </c>
+      <c r="O4" s="8">
+        <v>548000000</v>
+      </c>
+      <c r="P4" s="8">
+        <v>667000000</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>402000000</v>
+      </c>
+      <c r="R4" s="8">
+        <v>314000000</v>
+      </c>
+      <c r="S4" s="8">
+        <v>477000000</v>
+      </c>
+      <c r="T4" s="8">
+        <v>43000000</v>
+      </c>
+      <c r="U4" s="8">
+        <f>V4+W4</f>
+        <v>97186</v>
+      </c>
+      <c r="V4" s="8">
         <v>79703</v>
       </c>
-      <c r="G4" s="8">
+      <c r="W4" s="8">
         <v>17483</v>
       </c>
-      <c r="H4" s="8">
+      <c r="X4" s="8">
+        <f>Y4+Z4</f>
+        <v>96155</v>
+      </c>
+      <c r="Y4" s="8">
         <v>79837</v>
       </c>
-      <c r="I4" s="8">
+      <c r="Z4" s="8">
         <v>16318</v>
       </c>
-      <c r="J4" s="8">
-        <f>H4+I4</f>
-        <v>96155</v>
-      </c>
-      <c r="K4" s="8">
-        <f>F4+G4</f>
-        <v>97186</v>
-      </c>
-      <c r="L4" s="8">
-        <v>402000000</v>
-      </c>
-      <c r="M4" s="8">
-        <v>314000000</v>
-      </c>
-      <c r="N4" s="8">
-        <v>477000000</v>
-      </c>
-      <c r="O4" s="8">
-        <v>43000000</v>
-      </c>
-      <c r="P4" s="8">
+      <c r="AA4" s="8">
         <v>1653</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="AB4" s="8">
         <v>14658</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7">
         <f>1.391*10^9</f>
@@ -1627,53 +1792,86 @@
         <v>7384000000</v>
       </c>
       <c r="D5" s="8">
+        <v>1032000000</v>
+      </c>
+      <c r="E5" s="8">
+        <v>6268000000</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1013000000</v>
+      </c>
+      <c r="G5" s="8">
+        <v>345000000</v>
+      </c>
+      <c r="H5" s="8">
+        <v>699000000</v>
+      </c>
+      <c r="I5" s="8">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8">
         <v>6368000000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="K5" s="8">
         <v>4934000000</v>
       </c>
-      <c r="F5" s="8">
+      <c r="L5" s="8">
+        <v>133000000</v>
+      </c>
+      <c r="M5" s="8">
+        <v>225000000</v>
+      </c>
+      <c r="N5" s="8">
+        <v>119000000</v>
+      </c>
+      <c r="O5" s="8">
+        <v>580000000</v>
+      </c>
+      <c r="P5" s="8">
+        <v>674000000</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>436000000</v>
+      </c>
+      <c r="R5" s="8">
+        <v>385000000</v>
+      </c>
+      <c r="S5" s="8">
+        <v>530000000</v>
+      </c>
+      <c r="T5" s="8">
+        <v>54000000</v>
+      </c>
+      <c r="U5" s="8">
+        <f>V5+W5</f>
+        <v>112095</v>
+      </c>
+      <c r="V5" s="8">
         <v>92620</v>
       </c>
-      <c r="G5" s="8">
+      <c r="W5" s="8">
         <v>19475</v>
       </c>
-      <c r="H5" s="8">
+      <c r="X5" s="8">
+        <f>Y5+Z5</f>
+        <v>104891</v>
+      </c>
+      <c r="Y5" s="8">
         <v>86958</v>
       </c>
-      <c r="I5" s="8">
+      <c r="Z5" s="8">
         <v>17933</v>
       </c>
-      <c r="J5" s="8">
-        <f>H5+I5</f>
-        <v>104891</v>
-      </c>
-      <c r="K5" s="8">
-        <f>F5+G5</f>
-        <v>112095</v>
-      </c>
-      <c r="L5" s="8">
-        <v>436000000</v>
-      </c>
-      <c r="M5" s="8">
-        <v>385000000</v>
-      </c>
-      <c r="N5" s="8">
-        <v>530000000</v>
-      </c>
-      <c r="O5" s="8">
-        <v>54000000</v>
-      </c>
-      <c r="P5" s="8">
+      <c r="AA5" s="8">
         <v>1821</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="AB5" s="8">
         <v>16104</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="6">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B6" s="7">
         <f>1.234*10^9</f>
@@ -1684,53 +1882,86 @@
         <v>5985000000</v>
       </c>
       <c r="D6" s="8">
+        <v>951000000</v>
+      </c>
+      <c r="E6" s="8">
+        <v>8080000000</v>
+      </c>
+      <c r="F6" s="8">
+        <v>895000000</v>
+      </c>
+      <c r="G6" s="8">
+        <v>324000000</v>
+      </c>
+      <c r="H6" s="8">
+        <v>627000000</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <v>5132000000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="K6" s="8">
         <v>3821000000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="L6" s="8">
+        <v>354000000</v>
+      </c>
+      <c r="M6" s="8">
+        <v>239000000</v>
+      </c>
+      <c r="N6" s="8">
+        <v>122000000</v>
+      </c>
+      <c r="O6" s="8">
+        <v>560000000</v>
+      </c>
+      <c r="P6" s="8">
+        <v>648000000</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>293000000</v>
+      </c>
+      <c r="R6" s="8">
+        <v>282000000</v>
+      </c>
+      <c r="S6" s="8">
+        <v>260000000</v>
+      </c>
+      <c r="T6" s="8">
+        <v>35000000</v>
+      </c>
+      <c r="U6" s="8">
+        <f>V6+W6</f>
+        <v>88496</v>
+      </c>
+      <c r="V6" s="8">
         <v>76266</v>
       </c>
-      <c r="G6" s="8">
+      <c r="W6" s="8">
         <v>12230</v>
       </c>
-      <c r="H6" s="8">
+      <c r="X6" s="8">
+        <f>Y6+Z6</f>
+        <v>102672</v>
+      </c>
+      <c r="Y6" s="8">
         <v>87282</v>
       </c>
-      <c r="I6" s="8">
+      <c r="Z6" s="8">
         <v>15390</v>
       </c>
-      <c r="J6" s="8">
-        <f>H6+I6</f>
-        <v>102672</v>
-      </c>
-      <c r="K6" s="8">
-        <f>F6+G6</f>
-        <v>88496</v>
-      </c>
-      <c r="L6" s="8">
-        <v>293000000</v>
-      </c>
-      <c r="M6" s="8">
-        <v>282000000</v>
-      </c>
-      <c r="N6" s="8">
-        <v>260000000</v>
-      </c>
-      <c r="O6" s="8">
-        <v>35000000</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="AA6" s="8">
         <v>1917</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="AB6" s="8">
         <v>17007</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B7" s="7">
         <f>1.267*10^9</f>
@@ -1741,53 +1972,86 @@
         <v>6036000000</v>
       </c>
       <c r="D7" s="8">
+        <v>940000000</v>
+      </c>
+      <c r="E7" s="8">
+        <v>8615000000</v>
+      </c>
+      <c r="F7" s="8">
+        <v>418000000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>279000000</v>
+      </c>
+      <c r="H7" s="8">
+        <v>661000000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
         <v>5179000000</v>
       </c>
-      <c r="E7" s="8">
+      <c r="K7" s="8">
         <v>3862000000</v>
       </c>
-      <c r="F7" s="8">
+      <c r="L7" s="8">
+        <v>428000000</v>
+      </c>
+      <c r="M7" s="8">
+        <v>268000000</v>
+      </c>
+      <c r="N7" s="8">
+        <v>148000000</v>
+      </c>
+      <c r="O7" s="8">
+        <v>487000000</v>
+      </c>
+      <c r="P7" s="8">
+        <v>558000000</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>370000000</v>
+      </c>
+      <c r="R7" s="8">
+        <v>349000000</v>
+      </c>
+      <c r="S7" s="8">
+        <v>419000000</v>
+      </c>
+      <c r="T7" s="8">
+        <v>27000000</v>
+      </c>
+      <c r="U7" s="8">
+        <f>V7+W7</f>
+        <v>90891</v>
+      </c>
+      <c r="V7" s="8">
         <v>80277</v>
       </c>
-      <c r="G7" s="8">
+      <c r="W7" s="8">
         <v>10614</v>
       </c>
-      <c r="H7" s="8">
+      <c r="X7" s="8">
+        <f>Y7+Z7</f>
+        <v>82272</v>
+      </c>
+      <c r="Y7" s="8">
         <v>75946</v>
       </c>
-      <c r="I7" s="8">
+      <c r="Z7" s="8">
         <v>6326</v>
       </c>
-      <c r="J7" s="8">
-        <f>H7+I7</f>
-        <v>82272</v>
-      </c>
-      <c r="K7" s="8">
-        <f>F7+G7</f>
-        <v>90891</v>
-      </c>
-      <c r="L7" s="8">
-        <v>370000000</v>
-      </c>
-      <c r="M7" s="8">
-        <v>349000000</v>
-      </c>
-      <c r="N7" s="8">
-        <v>419000000</v>
-      </c>
-      <c r="O7" s="8">
-        <v>27000000</v>
-      </c>
-      <c r="P7" s="8">
+      <c r="AA7" s="8">
         <v>2035</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="AB7" s="8">
         <v>18100</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="6">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B8" s="7">
         <f>2.063*10^9</f>
@@ -1798,53 +2062,86 @@
         <v>8771000000</v>
       </c>
       <c r="D8" s="8">
+        <v>1254000000</v>
+      </c>
+      <c r="E8" s="8">
+        <v>14531000000</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1395000000</v>
+      </c>
+      <c r="G8" s="8">
+        <v>366000000</v>
+      </c>
+      <c r="H8" s="8">
+        <v>888000000</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
         <v>7611000000</v>
       </c>
-      <c r="E8" s="8">
+      <c r="K8" s="8">
         <v>5506000000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="L8" s="8">
+        <v>397000000</v>
+      </c>
+      <c r="M8" s="8">
+        <v>265000000</v>
+      </c>
+      <c r="N8" s="8">
+        <v>145000000</v>
+      </c>
+      <c r="O8" s="8">
+        <v>581000000</v>
+      </c>
+      <c r="P8" s="8">
+        <v>644000000</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>579000000</v>
+      </c>
+      <c r="R8" s="8">
+        <v>558000000</v>
+      </c>
+      <c r="S8" s="8">
+        <v>759000000</v>
+      </c>
+      <c r="T8" s="8">
+        <v>57000000</v>
+      </c>
+      <c r="U8" s="8">
+        <f>V8+W8</f>
+        <v>139593</v>
+      </c>
+      <c r="V8" s="8">
         <v>124318</v>
       </c>
-      <c r="G8" s="8">
+      <c r="W8" s="8">
         <v>15275</v>
       </c>
-      <c r="H8" s="8">
+      <c r="X8" s="8">
+        <f>Y8+Z8</f>
+        <v>145036</v>
+      </c>
+      <c r="Y8" s="8">
         <v>128044</v>
       </c>
-      <c r="I8" s="8">
+      <c r="Z8" s="8">
         <v>16992</v>
       </c>
-      <c r="J8" s="8">
-        <f>H8+I8</f>
-        <v>145036</v>
-      </c>
-      <c r="K8" s="8">
-        <f>F8+G8</f>
-        <v>139593</v>
-      </c>
-      <c r="L8" s="8">
-        <v>579000000</v>
-      </c>
-      <c r="M8" s="8">
-        <v>558000000</v>
-      </c>
-      <c r="N8" s="8">
-        <v>759000000</v>
-      </c>
-      <c r="O8" s="8">
-        <v>57000000</v>
-      </c>
-      <c r="P8" s="8">
+      <c r="AA8" s="8">
         <v>2181</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="AB8" s="8">
         <v>19437</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="6">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B9" s="7">
         <f>2.066*10^9</f>
@@ -1855,53 +2152,86 @@
         <v>10744000000</v>
       </c>
       <c r="D9" s="8">
+        <v>1491000000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>19384000000</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1868000000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>522000000</v>
+      </c>
+      <c r="H9" s="8">
+        <v>969000000</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
         <v>9314000000</v>
       </c>
-      <c r="E9" s="8">
+      <c r="K9" s="8">
         <v>7070000000</v>
       </c>
-      <c r="F9" s="8">
+      <c r="L9" s="8">
+        <v>401000000</v>
+      </c>
+      <c r="M9" s="8">
+        <v>280000000</v>
+      </c>
+      <c r="N9" s="8">
+        <v>148000000</v>
+      </c>
+      <c r="O9" s="8">
+        <v>678000000</v>
+      </c>
+      <c r="P9" s="8">
+        <v>821000000</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>752000000</v>
+      </c>
+      <c r="R9" s="8">
+        <v>787000000</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1584000000</v>
+      </c>
+      <c r="T9" s="8">
+        <v>86000000</v>
+      </c>
+      <c r="U9" s="8">
+        <f>V9+W9</f>
+        <v>180667</v>
+      </c>
+      <c r="V9" s="8">
         <v>161701</v>
       </c>
-      <c r="G9" s="8">
+      <c r="W9" s="8">
         <v>18966</v>
       </c>
-      <c r="H9" s="8">
+      <c r="X9" s="8">
+        <f>Y9+Z9</f>
+        <v>179757</v>
+      </c>
+      <c r="Y9" s="8">
         <v>163660</v>
       </c>
-      <c r="I9" s="8">
+      <c r="Z9" s="8">
         <v>16097</v>
       </c>
-      <c r="J9" s="8">
-        <f>H9+I9</f>
-        <v>179757</v>
-      </c>
-      <c r="K9" s="8">
-        <f>F9+G9</f>
-        <v>180667</v>
-      </c>
-      <c r="L9" s="8">
-        <v>752000000</v>
-      </c>
-      <c r="M9" s="8">
-        <v>787000000</v>
-      </c>
-      <c r="N9" s="8">
-        <v>1584000000</v>
-      </c>
-      <c r="O9" s="8">
-        <v>86000000</v>
-      </c>
-      <c r="P9" s="8">
+      <c r="AA9" s="8">
         <v>2564</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="AB9" s="8">
         <v>23277</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="6">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B10" s="7">
         <f>2.215*10^9</f>
@@ -1912,53 +2242,86 @@
         <v>10389000000</v>
       </c>
       <c r="D10" s="8">
+        <v>1621000000</v>
+      </c>
+      <c r="E10" s="8">
+        <v>17141000000</v>
+      </c>
+      <c r="F10" s="8">
+        <v>293000000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>666000000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1056000000</v>
+      </c>
+      <c r="I10" s="8">
+        <v>101000000</v>
+      </c>
+      <c r="J10" s="8">
         <v>9002000000</v>
       </c>
-      <c r="E10" s="8">
+      <c r="K10" s="8">
         <v>6617000000</v>
       </c>
-      <c r="F10" s="8">
+      <c r="L10" s="8">
+        <v>518000000</v>
+      </c>
+      <c r="M10" s="8">
+        <v>297000000</v>
+      </c>
+      <c r="N10" s="8">
+        <v>160000000</v>
+      </c>
+      <c r="O10" s="8">
+        <v>893000000</v>
+      </c>
+      <c r="P10" s="8">
+        <v>962000000</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>494000000</v>
+      </c>
+      <c r="R10" s="8">
+        <v>595000000</v>
+      </c>
+      <c r="S10" s="8">
+        <v>445000000</v>
+      </c>
+      <c r="T10" s="8">
+        <v>92000000</v>
+      </c>
+      <c r="U10" s="8">
+        <f>V10+W10</f>
+        <v>184877</v>
+      </c>
+      <c r="V10" s="8">
         <v>182847</v>
       </c>
-      <c r="G10" s="8">
+      <c r="W10" s="8">
         <v>2030</v>
       </c>
-      <c r="H10" s="8">
+      <c r="X10" s="8">
+        <f>Y10+Z10</f>
         <v>180338</v>
       </c>
-      <c r="I10" s="8">
+      <c r="Y10" s="8">
+        <v>180338</v>
+      </c>
+      <c r="Z10" s="8">
         <v>0</v>
       </c>
-      <c r="J10" s="8">
-        <f>H10+I10</f>
-        <v>180338</v>
-      </c>
-      <c r="K10" s="8">
-        <f>F10+G10</f>
-        <v>184877</v>
-      </c>
-      <c r="L10" s="8">
-        <v>494000000</v>
-      </c>
-      <c r="M10" s="8">
-        <v>595000000</v>
-      </c>
-      <c r="N10" s="8">
-        <v>445000000</v>
-      </c>
-      <c r="O10" s="8">
-        <v>92000000</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="AA10" s="8">
         <v>2699</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="AB10" s="8">
         <v>24515</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="6">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7">
         <f>2.884*10^9</f>
@@ -1969,53 +2332,86 @@
         <v>11958000000</v>
       </c>
       <c r="D11" s="8">
+        <v>1572000000</v>
+      </c>
+      <c r="E11" s="8">
+        <v>16229000000</v>
+      </c>
+      <c r="F11" s="8">
+        <v>619000000</v>
+      </c>
+      <c r="G11" s="8">
+        <v>576000000</v>
+      </c>
+      <c r="H11" s="8">
+        <v>973000000</v>
+      </c>
+      <c r="I11" s="8">
+        <v>32000000</v>
+      </c>
+      <c r="J11" s="8">
         <v>10206000000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="K11" s="8">
         <v>7307000000</v>
       </c>
-      <c r="F11" s="8">
+      <c r="L11" s="8">
+        <v>354000000</v>
+      </c>
+      <c r="M11" s="8">
+        <v>332000000</v>
+      </c>
+      <c r="N11" s="8">
+        <v>188000000</v>
+      </c>
+      <c r="O11" s="8">
+        <v>951000000</v>
+      </c>
+      <c r="P11" s="8">
+        <v>986000000</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>801000000</v>
+      </c>
+      <c r="R11" s="8">
+        <v>781000000</v>
+      </c>
+      <c r="S11" s="8">
+        <v>1274000000</v>
+      </c>
+      <c r="T11" s="8">
+        <v>85000000</v>
+      </c>
+      <c r="U11" s="8">
+        <f>V11+W11</f>
+        <v>201304</v>
+      </c>
+      <c r="V11" s="8">
         <v>199409</v>
       </c>
-      <c r="G11" s="8">
+      <c r="W11" s="8">
         <v>1895</v>
       </c>
-      <c r="H11" s="8">
+      <c r="X11" s="8">
+        <f>Y11+Z11</f>
+        <v>206421</v>
+      </c>
+      <c r="Y11" s="8">
         <v>204081</v>
       </c>
-      <c r="I11" s="8">
+      <c r="Z11" s="8">
         <v>2340</v>
       </c>
-      <c r="J11" s="8">
-        <f>H11+I11</f>
-        <v>206421</v>
-      </c>
-      <c r="K11" s="8">
-        <f>F11+G11</f>
-        <v>201304</v>
-      </c>
-      <c r="L11" s="8">
-        <v>801000000</v>
-      </c>
-      <c r="M11" s="8">
-        <v>781000000</v>
-      </c>
-      <c r="N11" s="8">
-        <v>1274000000</v>
-      </c>
-      <c r="O11" s="8">
-        <v>85000000</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="AA11" s="8">
         <v>2966</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="AB11" s="8">
         <v>26900</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="6">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B12" s="7">
         <f>3.66*10^9</f>
@@ -2026,53 +2422,86 @@
         <v>13757000000</v>
       </c>
       <c r="D12" s="8">
+        <v>1656000000</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16095000000</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1328000000</v>
+      </c>
+      <c r="G12" s="8">
+        <v>611000000</v>
+      </c>
+      <c r="H12" s="8">
+        <v>994000000</v>
+      </c>
+      <c r="I12" s="8">
+        <v>51000000</v>
+      </c>
+      <c r="J12" s="8">
         <v>12057000000</v>
       </c>
-      <c r="E12" s="8">
+      <c r="K12" s="8">
         <v>8384000000</v>
       </c>
-      <c r="F12" s="8">
+      <c r="L12" s="8">
+        <v>279000000</v>
+      </c>
+      <c r="M12" s="8">
+        <v>385000000</v>
+      </c>
+      <c r="N12" s="8">
+        <v>234000000</v>
+      </c>
+      <c r="O12" s="8">
+        <v>894000000</v>
+      </c>
+      <c r="P12" s="8">
+        <v>910000000</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>806000000</v>
+      </c>
+      <c r="R12" s="8">
+        <v>803000000</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1295000000</v>
+      </c>
+      <c r="T12" s="8">
+        <v>83000000</v>
+      </c>
+      <c r="U12" s="8">
+        <f>V12+W12</f>
+        <v>241391</v>
+      </c>
+      <c r="V12" s="8">
         <v>232102</v>
       </c>
-      <c r="G12" s="8">
+      <c r="W12" s="8">
         <v>9289</v>
       </c>
-      <c r="H12" s="8">
+      <c r="X12" s="8">
+        <f>Y12+Z12</f>
+        <v>237823</v>
+      </c>
+      <c r="Y12" s="8">
         <v>228882</v>
       </c>
-      <c r="I12" s="8">
+      <c r="Z12" s="8">
         <v>8941</v>
       </c>
-      <c r="J12" s="8">
-        <f>H12+I12</f>
-        <v>237823</v>
-      </c>
-      <c r="K12" s="8">
-        <f>F12+G12</f>
-        <v>241391</v>
-      </c>
-      <c r="L12" s="8">
-        <v>806000000</v>
-      </c>
-      <c r="M12" s="8">
-        <v>803000000</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1295000000</v>
-      </c>
-      <c r="O12" s="8">
-        <v>83000000</v>
-      </c>
-      <c r="P12" s="8">
+      <c r="AA12" s="8">
         <v>3254</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="AB12" s="8">
         <v>29281</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="6">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7">
         <f>4.847*10^9</f>
@@ -2083,53 +2512,86 @@
         <v>17719000000</v>
       </c>
       <c r="D13" s="8">
+        <v>2234000000</v>
+      </c>
+      <c r="E13" s="8">
+        <v>17707000000</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2775000000</v>
+      </c>
+      <c r="G13" s="8">
+        <v>740000000</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1494000000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
         <v>15967000000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="K13" s="8">
         <v>11085000000</v>
       </c>
-      <c r="F13" s="8">
+      <c r="L13" s="8">
+        <v>314000000</v>
+      </c>
+      <c r="M13" s="8">
+        <v>628000000</v>
+      </c>
+      <c r="N13" s="8">
+        <v>396000000</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1064000000</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1048000000</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>688000000</v>
+      </c>
+      <c r="R13" s="8">
+        <v>739000000</v>
+      </c>
+      <c r="S13" s="8">
+        <v>978000000</v>
+      </c>
+      <c r="T13" s="8">
+        <v>85000000</v>
+      </c>
+      <c r="U13" s="8">
+        <f>V13+W13</f>
+        <v>308650</v>
+      </c>
+      <c r="V13" s="8">
         <v>296884</v>
       </c>
-      <c r="G13" s="8">
+      <c r="W13" s="8">
         <v>11766</v>
       </c>
-      <c r="H13" s="8">
+      <c r="X13" s="8">
+        <f>Y13+Z13</f>
+        <v>305840</v>
+      </c>
+      <c r="Y13" s="8">
         <v>292731</v>
       </c>
-      <c r="I13" s="8">
+      <c r="Z13" s="8">
         <v>13109</v>
       </c>
-      <c r="J13" s="8">
-        <f>H13+I13</f>
-        <v>305840</v>
-      </c>
-      <c r="K13" s="8">
-        <f>F13+G13</f>
-        <v>308650</v>
-      </c>
-      <c r="L13" s="8">
-        <v>688000000</v>
-      </c>
-      <c r="M13" s="8">
-        <v>739000000</v>
-      </c>
-      <c r="N13" s="8">
-        <v>978000000</v>
-      </c>
-      <c r="O13" s="8">
-        <v>85000000</v>
-      </c>
-      <c r="P13" s="8">
+      <c r="AA13" s="8">
         <v>3476</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="AB13" s="8">
         <v>31498</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="6">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B14" s="7">
         <f>5.46*10^9</f>
@@ -2140,53 +2602,86 @@
         <v>18756000000</v>
       </c>
       <c r="D14" s="8">
+        <v>1857000000</v>
+      </c>
+      <c r="E14" s="8">
+        <v>18013000000</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2228000000</v>
+      </c>
+      <c r="G14" s="8">
+        <v>865000000</v>
+      </c>
+      <c r="H14" s="8">
+        <v>992000000</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
         <v>16861000000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="K14" s="8">
         <v>11322000000</v>
       </c>
-      <c r="F14" s="8">
+      <c r="L14" s="8">
+        <v>679000000</v>
+      </c>
+      <c r="M14" s="8">
+        <v>668000000</v>
+      </c>
+      <c r="N14" s="8">
+        <v>408000000</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1279000000</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1286000000</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>616000000</v>
+      </c>
+      <c r="R14" s="8">
+        <v>688000000</v>
+      </c>
+      <c r="S14" s="8">
+        <v>846000000</v>
+      </c>
+      <c r="T14" s="8">
+        <v>48000000</v>
+      </c>
+      <c r="U14" s="8">
+        <f>V14+W14</f>
+        <v>310048</v>
+      </c>
+      <c r="V14" s="8">
         <v>295324</v>
       </c>
-      <c r="G14" s="8">
+      <c r="W14" s="8">
         <v>14724</v>
       </c>
-      <c r="H14" s="8">
+      <c r="X14" s="8">
+        <f>Y14+Z14</f>
+        <v>305407</v>
+      </c>
+      <c r="Y14" s="8">
         <v>291189</v>
       </c>
-      <c r="I14" s="8">
+      <c r="Z14" s="8">
         <v>14218</v>
       </c>
-      <c r="J14" s="8">
-        <f>H14+I14</f>
-        <v>305407</v>
-      </c>
-      <c r="K14" s="8">
-        <f>F14+G14</f>
-        <v>310048</v>
-      </c>
-      <c r="L14" s="8">
-        <v>616000000</v>
-      </c>
-      <c r="M14" s="8">
-        <v>688000000</v>
-      </c>
-      <c r="N14" s="8">
-        <v>846000000</v>
-      </c>
-      <c r="O14" s="8">
-        <v>48000000</v>
-      </c>
-      <c r="P14" s="8">
+      <c r="AA14" s="8">
         <v>3724</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="AB14" s="8">
         <v>33657</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="6">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7">
         <f>4.234*10^9</f>
@@ -2197,53 +2692,86 @@
         <v>16934000000</v>
       </c>
       <c r="D15" s="8">
+        <v>1770000000</v>
+      </c>
+      <c r="E15" s="8">
+        <v>18915000000</v>
+      </c>
+      <c r="F15" s="8">
+        <v>621000000</v>
+      </c>
+      <c r="G15" s="8">
+        <v>667000000</v>
+      </c>
+      <c r="H15" s="8">
+        <v>961000000</v>
+      </c>
+      <c r="I15" s="8">
+        <v>142000000</v>
+      </c>
+      <c r="J15" s="8">
         <v>14602000000</v>
       </c>
-      <c r="E15" s="8">
+      <c r="K15" s="8">
         <v>10521000000</v>
       </c>
-      <c r="F15" s="8">
+      <c r="L15" s="8">
+        <v>344000000</v>
+      </c>
+      <c r="M15" s="8">
+        <v>588000000</v>
+      </c>
+      <c r="N15" s="8">
+        <v>368000000</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1466000000</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1410000000</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>866000000</v>
+      </c>
+      <c r="R15" s="8">
+        <v>769000000</v>
+      </c>
+      <c r="S15" s="8">
+        <v>1133000000</v>
+      </c>
+      <c r="T15" s="8">
+        <v>106000000</v>
+      </c>
+      <c r="U15" s="8">
+        <f>V15+W15</f>
+        <v>254695</v>
+      </c>
+      <c r="V15" s="8">
         <v>238533</v>
       </c>
-      <c r="G15" s="8">
+      <c r="W15" s="8">
         <v>16162</v>
       </c>
-      <c r="H15" s="8">
+      <c r="X15" s="8">
+        <f>Y15+Z15</f>
+        <v>258580</v>
+      </c>
+      <c r="Y15" s="8">
         <v>242169</v>
       </c>
-      <c r="I15" s="8">
+      <c r="Z15" s="8">
         <v>16411</v>
       </c>
-      <c r="J15" s="8">
-        <f>H15+I15</f>
-        <v>258580</v>
-      </c>
-      <c r="K15" s="8">
-        <f>F15+G15</f>
-        <v>254695</v>
-      </c>
-      <c r="L15" s="8">
-        <v>866000000</v>
-      </c>
-      <c r="M15" s="8">
-        <v>769000000</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1133000000</v>
-      </c>
-      <c r="O15" s="8">
-        <v>106000000</v>
-      </c>
-      <c r="P15" s="8">
+      <c r="AA15" s="8">
         <v>3971</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="AB15" s="8">
         <v>36165</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="6">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B16" s="7">
         <f>5.382*10^9</f>
@@ -2254,53 +2782,86 @@
         <v>21454000000</v>
       </c>
       <c r="D16" s="8">
+        <v>1694000000</v>
+      </c>
+      <c r="E16" s="8">
+        <v>21107000000</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3297000000</v>
+      </c>
+      <c r="G16" s="8">
+        <v>733000000</v>
+      </c>
+      <c r="H16" s="8">
+        <v>961000000</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
         <v>18629000000</v>
       </c>
-      <c r="E16" s="8">
+      <c r="K16" s="8">
         <v>13480000000</v>
       </c>
-      <c r="F16" s="8">
+      <c r="L16" s="8">
+        <v>286000000</v>
+      </c>
+      <c r="M16" s="8">
+        <v>621000000</v>
+      </c>
+      <c r="N16" s="8">
+        <v>381000000</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1645000000</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1579000000</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>1117000000</v>
+      </c>
+      <c r="R16" s="8">
+        <v>1101300000</v>
+      </c>
+      <c r="S16" s="8">
+        <v>2100000000</v>
+      </c>
+      <c r="T16" s="8">
+        <v>94000000</v>
+      </c>
+      <c r="U16" s="8">
+        <f>V16+W16</f>
+        <v>343830</v>
+      </c>
+      <c r="V16" s="8">
         <v>325158</v>
       </c>
-      <c r="G16" s="8">
+      <c r="W16" s="8">
         <v>18672</v>
       </c>
-      <c r="H16" s="8">
+      <c r="X16" s="8">
+        <f>Y16+Z16</f>
+        <v>365923</v>
+      </c>
+      <c r="Y16" s="8">
         <v>345988</v>
       </c>
-      <c r="I16" s="8">
+      <c r="Z16" s="8">
         <v>19935</v>
       </c>
-      <c r="J16" s="8">
-        <f>H16+I16</f>
-        <v>365923</v>
-      </c>
-      <c r="K16" s="8">
-        <f>F16+G16</f>
-        <v>343830</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1117000000</v>
-      </c>
-      <c r="M16" s="8">
-        <v>1101300000</v>
-      </c>
-      <c r="N16" s="8">
-        <v>2100000000</v>
-      </c>
-      <c r="O16" s="8">
-        <v>94000000</v>
-      </c>
-      <c r="P16" s="8">
+      <c r="AA16" s="8">
         <v>4283</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="AB16" s="8">
         <v>38883</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="6">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B17" s="7">
         <f>5.777*10^9</f>
@@ -2311,53 +2872,86 @@
         <v>24318000000</v>
       </c>
       <c r="D17" s="8">
+        <v>1876000000</v>
+      </c>
+      <c r="E17" s="8">
+        <v>22185000000</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1420000000</v>
+      </c>
+      <c r="G17" s="8">
+        <v>810000000</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1032000000</v>
+      </c>
+      <c r="I17" s="8">
+        <v>34000000</v>
+      </c>
+      <c r="J17" s="8">
         <v>21307000000</v>
       </c>
-      <c r="E17" s="8">
+      <c r="K17" s="8">
         <v>15785000000</v>
       </c>
-      <c r="F17" s="8">
+      <c r="L17" s="8">
+        <v>467000000</v>
+      </c>
+      <c r="M17" s="8">
+        <v>599000000</v>
+      </c>
+      <c r="N17" s="8">
+        <v>352000000</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1701000000</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1605000000</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>1310000000</v>
+      </c>
+      <c r="R17" s="8">
+        <v>1151000000</v>
+      </c>
+      <c r="S17" s="8">
+        <v>2462000000</v>
+      </c>
+      <c r="T17" s="8">
+        <v>100000000</v>
+      </c>
+      <c r="U17" s="8">
+        <f>V17+W17</f>
+        <v>405278</v>
+      </c>
+      <c r="V17" s="8">
         <v>388131</v>
       </c>
-      <c r="G17" s="8">
+      <c r="W17" s="8">
         <v>17147</v>
       </c>
-      <c r="H17" s="8">
+      <c r="X17" s="8">
+        <f>Y17+Z17</f>
+        <v>439701</v>
+      </c>
+      <c r="Y17" s="8">
         <v>419088</v>
       </c>
-      <c r="I17" s="8">
+      <c r="Z17" s="8">
         <v>20613</v>
       </c>
-      <c r="J17" s="8">
-        <f>H17+I17</f>
-        <v>439701</v>
-      </c>
-      <c r="K17" s="8">
-        <f>F17+G17</f>
-        <v>405278</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1310000000</v>
-      </c>
-      <c r="M17" s="8">
-        <v>1151000000</v>
-      </c>
-      <c r="N17" s="8">
-        <v>2462000000</v>
-      </c>
-      <c r="O17" s="8">
-        <v>100000000</v>
-      </c>
-      <c r="P17" s="8">
+      <c r="AA17" s="8">
         <v>4678</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="AB17" s="8">
         <v>42419</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="6">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B18" s="7">
         <f>4.511*10^9</f>
@@ -2368,53 +2962,86 @@
         <v>23329000000</v>
       </c>
       <c r="D18" s="8">
+        <v>1847000000</v>
+      </c>
+      <c r="E18" s="8">
+        <v>22402000000</v>
+      </c>
+      <c r="F18" s="8">
+        <v>441000000</v>
+      </c>
+      <c r="G18" s="8">
+        <v>771000000</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1076000000</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
         <v>19963000000</v>
       </c>
-      <c r="E18" s="8">
+      <c r="K18" s="8">
         <v>15755000000</v>
       </c>
-      <c r="F18" s="8">
+      <c r="L18" s="8">
+        <v>521000000</v>
+      </c>
+      <c r="M18" s="8">
+        <v>564000000</v>
+      </c>
+      <c r="N18" s="8">
+        <v>333000000</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1837000000</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1702000000</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1529000000</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1361000000</v>
+      </c>
+      <c r="S18" s="8">
+        <v>3889000000</v>
+      </c>
+      <c r="T18" s="8">
+        <v>67000000</v>
+      </c>
+      <c r="U18" s="8">
+        <f>V18+W18</f>
+        <v>422875</v>
+      </c>
+      <c r="V18" s="8">
         <v>412180</v>
       </c>
-      <c r="G18" s="8">
+      <c r="W18" s="8">
         <v>10695</v>
       </c>
-      <c r="H18" s="8">
+      <c r="X18" s="8">
+        <f>Y18+Z18</f>
+        <v>440808</v>
+      </c>
+      <c r="Y18" s="8">
         <v>421371</v>
       </c>
-      <c r="I18" s="8">
+      <c r="Z18" s="8">
         <v>19437</v>
       </c>
-      <c r="J18" s="8">
-        <f>H18+I18</f>
-        <v>440808</v>
-      </c>
-      <c r="K18" s="8">
-        <f>F18+G18</f>
-        <v>422875</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1529000000</v>
-      </c>
-      <c r="M18" s="8">
-        <v>1361000000</v>
-      </c>
-      <c r="N18" s="8">
-        <v>3889000000</v>
-      </c>
-      <c r="O18" s="8">
-        <v>67000000</v>
-      </c>
-      <c r="P18" s="8">
+      <c r="AA18" s="8">
         <v>4947</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="AB18" s="8">
         <v>45169</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="6">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B19" s="7">
         <f>4.533*10^9</f>
@@ -2425,53 +3052,86 @@
         <v>24927000000</v>
       </c>
       <c r="D19" s="8">
+        <v>2134000000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>23075000000</v>
+      </c>
+      <c r="F19" s="8">
+        <v>1005000000</v>
+      </c>
+      <c r="G19" s="8">
+        <v>943000000</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1191000000</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
         <v>21268000000</v>
       </c>
-      <c r="E19" s="8">
+      <c r="K19" s="8">
         <v>17179000000</v>
       </c>
-      <c r="F19" s="8">
+      <c r="L19" s="8">
+        <v>282000000</v>
+      </c>
+      <c r="M19" s="8">
+        <v>567000000</v>
+      </c>
+      <c r="N19" s="8">
+        <v>338000000</v>
+      </c>
+      <c r="O19" s="8">
+        <v>2150000000</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1984000000</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>1509000000</v>
+      </c>
+      <c r="R19" s="8">
+        <v>1231000000</v>
+      </c>
+      <c r="S19" s="8">
+        <v>3653000000</v>
+      </c>
+      <c r="T19" s="8">
+        <v>66000000</v>
+      </c>
+      <c r="U19" s="8">
+        <f>V19+W19</f>
+        <v>466140</v>
+      </c>
+      <c r="V19" s="8">
         <v>446915</v>
       </c>
-      <c r="G19" s="8">
+      <c r="W19" s="8">
         <v>19225</v>
       </c>
-      <c r="H19" s="8">
+      <c r="X19" s="8">
+        <f>Y19+Z19</f>
+        <v>479700</v>
+      </c>
+      <c r="Y19" s="8">
         <v>460211</v>
       </c>
-      <c r="I19" s="8">
+      <c r="Z19" s="8">
         <v>19489</v>
       </c>
-      <c r="J19" s="8">
-        <f>H19+I19</f>
-        <v>479700</v>
-      </c>
-      <c r="K19" s="8">
-        <f>F19+G19</f>
-        <v>466140</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1509000000</v>
-      </c>
-      <c r="M19" s="8">
-        <v>1231000000</v>
-      </c>
-      <c r="N19" s="8">
-        <v>3653000000</v>
-      </c>
-      <c r="O19" s="8">
-        <v>66000000</v>
-      </c>
-      <c r="P19" s="8">
+      <c r="AA19" s="8">
         <v>5265</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="AB19" s="8">
         <v>48082</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="6">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B20" s="7">
         <f>4.178*10^9</f>
@@ -2482,53 +3142,86 @@
         <v>23350000000</v>
       </c>
       <c r="D20" s="8">
+        <v>2414000000</v>
+      </c>
+      <c r="E20" s="8">
+        <v>26077000000</v>
+      </c>
+      <c r="F20" s="8">
+        <v>848000000</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1161000000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1253000000</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
         <v>19625000000</v>
       </c>
-      <c r="E20" s="8">
+      <c r="K20" s="8">
         <v>15957000000</v>
       </c>
-      <c r="F20" s="8">
+      <c r="L20" s="8">
+        <v>554000000</v>
+      </c>
+      <c r="M20" s="8">
+        <v>489000000</v>
+      </c>
+      <c r="N20" s="8">
+        <v>301000000</v>
+      </c>
+      <c r="O20" s="8">
+        <v>2166000000</v>
+      </c>
+      <c r="P20" s="8">
+        <v>2037000000</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>1559000000</v>
+      </c>
+      <c r="R20" s="8">
+        <v>1178000000</v>
+      </c>
+      <c r="S20" s="8">
+        <v>3980000000</v>
+      </c>
+      <c r="T20" s="8">
+        <v>49000000</v>
+      </c>
+      <c r="U20" s="8">
+        <f>V20+W20</f>
+        <v>435059</v>
+      </c>
+      <c r="V20" s="8">
         <v>419074</v>
       </c>
-      <c r="G20" s="8">
+      <c r="W20" s="8">
         <v>15985</v>
       </c>
-      <c r="H20" s="8">
+      <c r="X20" s="8">
+        <f>Y20+Z20</f>
+        <v>430488</v>
+      </c>
+      <c r="Y20" s="8">
         <v>416800</v>
       </c>
-      <c r="I20" s="8">
+      <c r="Z20" s="8">
         <v>13688</v>
       </c>
-      <c r="J20" s="8">
-        <f>H20+I20</f>
-        <v>430488</v>
-      </c>
-      <c r="K20" s="8">
-        <f>F20+G20</f>
-        <v>435059</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1559000000</v>
-      </c>
-      <c r="M20" s="8">
-        <v>1178000000</v>
-      </c>
-      <c r="N20" s="8">
-        <v>3980000000</v>
-      </c>
-      <c r="O20" s="8">
-        <v>49000000</v>
-      </c>
-      <c r="P20" s="8">
+      <c r="AA20" s="8">
         <v>5595</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="AB20" s="8">
         <v>51105</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="6">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B21" s="7">
         <v>4438000000</v>
@@ -2537,46 +3230,79 @@
         <v>25167000000</v>
       </c>
       <c r="D21" s="8">
+        <v>2374000000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>29094000000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2064000000</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1094000000</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1280000000</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
         <v>21563000000</v>
       </c>
-      <c r="E21" s="8">
+      <c r="K21" s="8">
         <v>17498000000</v>
       </c>
-      <c r="F21" s="8">
+      <c r="L21" s="8">
+        <v>433000000</v>
+      </c>
+      <c r="M21" s="8">
+        <v>500000000</v>
+      </c>
+      <c r="N21" s="8">
+        <v>296000000</v>
+      </c>
+      <c r="O21" s="8">
+        <v>2166000000</v>
+      </c>
+      <c r="P21" s="8">
+        <v>2107000000</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>1438000000</v>
+      </c>
+      <c r="R21" s="8">
+        <v>1124000000</v>
+      </c>
+      <c r="S21" s="8">
+        <v>3202000000</v>
+      </c>
+      <c r="T21" s="8">
+        <v>41000000</v>
+      </c>
+      <c r="U21" s="8">
+        <v>484507</v>
+      </c>
+      <c r="V21" s="8">
         <v>461538</v>
       </c>
-      <c r="G21" s="8">
+      <c r="W21" s="8">
         <v>22969</v>
       </c>
-      <c r="H21" s="8">
+      <c r="X21" s="8">
+        <f>Y21+Z21</f>
+        <v>494989</v>
+      </c>
+      <c r="Y21" s="8">
         <v>476777</v>
       </c>
-      <c r="I21" s="8">
+      <c r="Z21" s="8">
         <v>18212</v>
       </c>
-      <c r="J21" s="8">
-        <f>H21+I21</f>
-        <v>494989</v>
-      </c>
-      <c r="K21" s="8">
-        <v>484507</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1438000000</v>
-      </c>
-      <c r="M21" s="8">
-        <v>1124000000</v>
-      </c>
-      <c r="N21" s="8">
-        <v>3202000000</v>
-      </c>
-      <c r="O21" s="8">
-        <v>41000000</v>
-      </c>
-      <c r="P21" s="8">
+      <c r="AA21" s="8">
         <v>5952</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="AB21" s="8">
         <v>54892</v>
       </c>
     </row>
